--- a/SolutionTrial.xlsx
+++ b/SolutionTrial.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Transitus02\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Transitus02\Documents\GitHub\vijay\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8845319D-D36A-4C87-A2F9-22420CE4453B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27D64645-FF2E-42CF-B174-3FBC611425EE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -531,7 +531,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
